--- a/leave/src/main/resources/TestData/Accural/CarryForwardWithWorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForwardWithWorkingDays.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F1AAF9-BF37-4122-BD1B-656343C7C8A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B24147-5B16-4DDD-9704-A4DB883877EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="516" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFWD_WD" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="196">
   <si>
     <t>Test Case</t>
   </si>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>april</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -773,6 +776,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,11 +1105,14 @@
   <dimension ref="A1:AE145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD2" sqref="AD2:AD145"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="29" max="29" width="8.88671875" style="8"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="118.8">
       <c r="A1" s="1" t="s">
@@ -1192,7 +1199,7 @@
       <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
       <c r="AD1" s="6" t="s">
@@ -1210,7 +1217,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>47</v>
@@ -1287,7 +1294,7 @@
       <c r="AB2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD2" t="s">
@@ -1305,7 +1312,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>48</v>
@@ -1382,7 +1389,7 @@
       <c r="AB3" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD3" t="s">
@@ -1400,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -1477,7 +1484,7 @@
       <c r="AB4" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AC4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD4" t="s">
@@ -1495,7 +1502,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>50</v>
@@ -1572,7 +1579,7 @@
       <c r="AB5" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD5" t="s">
@@ -1590,7 +1597,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>51</v>
@@ -1667,7 +1674,7 @@
       <c r="AB6" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD6" t="s">
@@ -1685,7 +1692,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>52</v>
@@ -1762,7 +1769,7 @@
       <c r="AB7" t="s">
         <v>28</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD7" t="s">
@@ -1780,7 +1787,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>53</v>
@@ -1857,7 +1864,7 @@
       <c r="AB8" t="s">
         <v>28</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD8" t="s">
@@ -1875,7 +1882,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>54</v>
@@ -1952,7 +1959,7 @@
       <c r="AB9" t="s">
         <v>28</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD9" t="s">
@@ -1970,7 +1977,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>55</v>
@@ -2047,7 +2054,7 @@
       <c r="AB10" t="s">
         <v>28</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD10" t="s">
@@ -2065,7 +2072,7 @@
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>56</v>
@@ -2142,7 +2149,7 @@
       <c r="AB11" t="s">
         <v>28</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AC11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD11" t="s">
@@ -2160,7 +2167,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>57</v>
@@ -2237,7 +2244,7 @@
       <c r="AB12" t="s">
         <v>28</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AC12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD12" t="s">
@@ -2255,7 +2262,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>58</v>
@@ -2332,7 +2339,7 @@
       <c r="AB13" t="s">
         <v>28</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD13" t="s">
@@ -2350,7 +2357,7 @@
         <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>59</v>
@@ -2427,7 +2434,7 @@
       <c r="AB14" t="s">
         <v>28</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AC14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD14" t="s">
@@ -2445,7 +2452,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>192</v>
@@ -2522,7 +2529,7 @@
       <c r="AB15" t="s">
         <v>28</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AC15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD15" t="s">
@@ -2540,7 +2547,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>60</v>
@@ -2617,7 +2624,7 @@
       <c r="AB16" t="s">
         <v>28</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD16" t="s">
@@ -2635,7 +2642,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>61</v>
@@ -2712,7 +2719,7 @@
       <c r="AB17" t="s">
         <v>28</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD17" t="s">
@@ -2730,7 +2737,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>62</v>
@@ -2807,7 +2814,7 @@
       <c r="AB18" t="s">
         <v>28</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD18" t="s">
@@ -2825,7 +2832,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>63</v>
@@ -2902,7 +2909,7 @@
       <c r="AB19" t="s">
         <v>28</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD19" t="s">
@@ -2920,7 +2927,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -2997,7 +3004,7 @@
       <c r="AB20" t="s">
         <v>28</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AC20" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD20" t="s">
@@ -3015,7 +3022,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>65</v>
@@ -3092,7 +3099,7 @@
       <c r="AB21" t="s">
         <v>28</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD21" t="s">
@@ -3110,7 +3117,7 @@
         <v>43</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>66</v>
@@ -3187,7 +3194,7 @@
       <c r="AB22" t="s">
         <v>28</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AC22" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD22" t="s">
@@ -3205,7 +3212,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>67</v>
@@ -3282,7 +3289,7 @@
       <c r="AB23" t="s">
         <v>28</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AC23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD23" t="s">
@@ -3300,7 +3307,7 @@
         <v>45</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>68</v>
@@ -3377,7 +3384,7 @@
       <c r="AB24" t="s">
         <v>28</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD24" t="s">
@@ -3395,7 +3402,7 @@
         <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>69</v>
@@ -3472,7 +3479,7 @@
       <c r="AB25" t="s">
         <v>28</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD25" t="s">
@@ -3490,7 +3497,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>70</v>
@@ -3567,7 +3574,7 @@
       <c r="AB26" t="s">
         <v>28</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AC26" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD26" t="s">
@@ -3585,7 +3592,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>71</v>
@@ -3662,7 +3669,7 @@
       <c r="AB27" t="s">
         <v>28</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AC27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD27" t="s">
@@ -3680,7 +3687,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>72</v>
@@ -3757,7 +3764,7 @@
       <c r="AB28" t="s">
         <v>28</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AC28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD28" t="s">
@@ -3775,7 +3782,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>73</v>
@@ -3852,7 +3859,7 @@
       <c r="AB29" t="s">
         <v>28</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AC29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD29" t="s">
@@ -3870,7 +3877,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>74</v>
@@ -3947,7 +3954,7 @@
       <c r="AB30" t="s">
         <v>28</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD30" t="s">
@@ -3965,7 +3972,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>75</v>
@@ -4042,7 +4049,7 @@
       <c r="AB31" t="s">
         <v>28</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AC31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD31" t="s">
@@ -4060,7 +4067,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>76</v>
@@ -4137,7 +4144,7 @@
       <c r="AB32" t="s">
         <v>28</v>
       </c>
-      <c r="AC32" t="s">
+      <c r="AC32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD32" t="s">
@@ -4155,7 +4162,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>77</v>
@@ -4232,7 +4239,7 @@
       <c r="AB33" t="s">
         <v>28</v>
       </c>
-      <c r="AC33" t="s">
+      <c r="AC33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD33" t="s">
@@ -4250,7 +4257,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>78</v>
@@ -4327,7 +4334,7 @@
       <c r="AB34" t="s">
         <v>28</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD34" t="s">
@@ -4345,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>79</v>
@@ -4422,7 +4429,7 @@
       <c r="AB35" t="s">
         <v>28</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD35" t="s">
@@ -4440,7 +4447,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>80</v>
@@ -4517,7 +4524,7 @@
       <c r="AB36" t="s">
         <v>28</v>
       </c>
-      <c r="AC36" t="s">
+      <c r="AC36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD36" t="s">
@@ -4535,7 +4542,7 @@
         <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>81</v>
@@ -4612,7 +4619,7 @@
       <c r="AB37" t="s">
         <v>28</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AC37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD37" t="s">
@@ -4630,7 +4637,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>82</v>
@@ -4707,7 +4714,7 @@
       <c r="AB38" t="s">
         <v>28</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AC38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD38" t="s">
@@ -4725,7 +4732,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>83</v>
@@ -4802,7 +4809,7 @@
       <c r="AB39" t="s">
         <v>28</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD39" t="s">
@@ -4820,7 +4827,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>84</v>
@@ -4897,7 +4904,7 @@
       <c r="AB40" t="s">
         <v>28</v>
       </c>
-      <c r="AC40" t="s">
+      <c r="AC40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD40" t="s">
@@ -4915,7 +4922,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>85</v>
@@ -4992,7 +4999,7 @@
       <c r="AB41" t="s">
         <v>28</v>
       </c>
-      <c r="AC41" t="s">
+      <c r="AC41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD41" t="s">
@@ -5010,7 +5017,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>86</v>
@@ -5087,7 +5094,7 @@
       <c r="AB42" t="s">
         <v>28</v>
       </c>
-      <c r="AC42" t="s">
+      <c r="AC42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD42" t="s">
@@ -5105,7 +5112,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>87</v>
@@ -5182,7 +5189,7 @@
       <c r="AB43" t="s">
         <v>28</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AC43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD43" t="s">
@@ -5200,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>88</v>
@@ -5277,7 +5284,7 @@
       <c r="AB44" t="s">
         <v>28</v>
       </c>
-      <c r="AC44" t="s">
+      <c r="AC44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD44" t="s">
@@ -5295,7 +5302,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>89</v>
@@ -5372,7 +5379,7 @@
       <c r="AB45" t="s">
         <v>28</v>
       </c>
-      <c r="AC45" t="s">
+      <c r="AC45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD45" t="s">
@@ -5390,7 +5397,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>90</v>
@@ -5467,7 +5474,7 @@
       <c r="AB46" t="s">
         <v>28</v>
       </c>
-      <c r="AC46" t="s">
+      <c r="AC46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD46" t="s">
@@ -5485,7 +5492,7 @@
         <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>91</v>
@@ -5562,7 +5569,7 @@
       <c r="AB47" t="s">
         <v>28</v>
       </c>
-      <c r="AC47" t="s">
+      <c r="AC47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD47" t="s">
@@ -5580,7 +5587,7 @@
         <v>45</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>92</v>
@@ -5657,7 +5664,7 @@
       <c r="AB48" t="s">
         <v>28</v>
       </c>
-      <c r="AC48" t="s">
+      <c r="AC48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD48" t="s">
@@ -5675,7 +5682,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>93</v>
@@ -5752,7 +5759,7 @@
       <c r="AB49" t="s">
         <v>28</v>
       </c>
-      <c r="AC49" t="s">
+      <c r="AC49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="AD49" t="s">
@@ -5847,8 +5854,8 @@
       <c r="AB50" t="s">
         <v>29</v>
       </c>
-      <c r="AC50">
-        <v>5</v>
+      <c r="AC50" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD50" t="s">
         <v>22</v>
@@ -5942,8 +5949,8 @@
       <c r="AB51" t="s">
         <v>29</v>
       </c>
-      <c r="AC51">
-        <v>5</v>
+      <c r="AC51" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD51" t="s">
         <v>22</v>
@@ -6037,8 +6044,8 @@
       <c r="AB52" t="s">
         <v>29</v>
       </c>
-      <c r="AC52">
-        <v>5</v>
+      <c r="AC52" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD52" t="s">
         <v>22</v>
@@ -6132,8 +6139,8 @@
       <c r="AB53" t="s">
         <v>29</v>
       </c>
-      <c r="AC53">
-        <v>5</v>
+      <c r="AC53" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD53" t="s">
         <v>22</v>
@@ -6227,8 +6234,8 @@
       <c r="AB54" t="s">
         <v>29</v>
       </c>
-      <c r="AC54">
-        <v>5</v>
+      <c r="AC54" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD54" t="s">
         <v>22</v>
@@ -6322,8 +6329,8 @@
       <c r="AB55" t="s">
         <v>29</v>
       </c>
-      <c r="AC55">
-        <v>5</v>
+      <c r="AC55" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD55" t="s">
         <v>22</v>
@@ -6417,8 +6424,8 @@
       <c r="AB56" t="s">
         <v>29</v>
       </c>
-      <c r="AC56">
-        <v>5</v>
+      <c r="AC56" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD56" t="s">
         <v>22</v>
@@ -6512,8 +6519,8 @@
       <c r="AB57" t="s">
         <v>29</v>
       </c>
-      <c r="AC57">
-        <v>5</v>
+      <c r="AC57" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD57" t="s">
         <v>22</v>
@@ -6607,8 +6614,8 @@
       <c r="AB58" t="s">
         <v>29</v>
       </c>
-      <c r="AC58">
-        <v>5</v>
+      <c r="AC58" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD58" t="s">
         <v>22</v>
@@ -6702,8 +6709,8 @@
       <c r="AB59" t="s">
         <v>29</v>
       </c>
-      <c r="AC59">
-        <v>5</v>
+      <c r="AC59" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD59" t="s">
         <v>22</v>
@@ -6797,8 +6804,8 @@
       <c r="AB60" t="s">
         <v>29</v>
       </c>
-      <c r="AC60">
-        <v>5</v>
+      <c r="AC60" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD60" t="s">
         <v>22</v>
@@ -6892,8 +6899,8 @@
       <c r="AB61" t="s">
         <v>29</v>
       </c>
-      <c r="AC61">
-        <v>5</v>
+      <c r="AC61" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD61" t="s">
         <v>22</v>
@@ -6987,8 +6994,8 @@
       <c r="AB62" t="s">
         <v>29</v>
       </c>
-      <c r="AC62">
-        <v>5</v>
+      <c r="AC62" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD62" t="s">
         <v>22</v>
@@ -7082,8 +7089,8 @@
       <c r="AB63" t="s">
         <v>29</v>
       </c>
-      <c r="AC63">
-        <v>5</v>
+      <c r="AC63" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD63" t="s">
         <v>22</v>
@@ -7177,8 +7184,8 @@
       <c r="AB64" t="s">
         <v>29</v>
       </c>
-      <c r="AC64">
-        <v>5</v>
+      <c r="AC64" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD64" t="s">
         <v>22</v>
@@ -7272,8 +7279,8 @@
       <c r="AB65" t="s">
         <v>29</v>
       </c>
-      <c r="AC65">
-        <v>5</v>
+      <c r="AC65" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD65" t="s">
         <v>22</v>
@@ -7367,8 +7374,8 @@
       <c r="AB66" t="s">
         <v>29</v>
       </c>
-      <c r="AC66">
-        <v>5</v>
+      <c r="AC66" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD66" t="s">
         <v>22</v>
@@ -7462,8 +7469,8 @@
       <c r="AB67" t="s">
         <v>29</v>
       </c>
-      <c r="AC67">
-        <v>5</v>
+      <c r="AC67" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD67" t="s">
         <v>22</v>
@@ -7557,8 +7564,8 @@
       <c r="AB68" t="s">
         <v>29</v>
       </c>
-      <c r="AC68">
-        <v>5</v>
+      <c r="AC68" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD68" t="s">
         <v>22</v>
@@ -7652,8 +7659,8 @@
       <c r="AB69" t="s">
         <v>29</v>
       </c>
-      <c r="AC69">
-        <v>5</v>
+      <c r="AC69" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD69" t="s">
         <v>22</v>
@@ -7747,8 +7754,8 @@
       <c r="AB70" t="s">
         <v>29</v>
       </c>
-      <c r="AC70">
-        <v>5</v>
+      <c r="AC70" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD70" t="s">
         <v>22</v>
@@ -7842,8 +7849,8 @@
       <c r="AB71" t="s">
         <v>29</v>
       </c>
-      <c r="AC71">
-        <v>5</v>
+      <c r="AC71" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD71" t="s">
         <v>22</v>
@@ -7937,8 +7944,8 @@
       <c r="AB72" t="s">
         <v>29</v>
       </c>
-      <c r="AC72">
-        <v>5</v>
+      <c r="AC72" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD72" t="s">
         <v>22</v>
@@ -8032,8 +8039,8 @@
       <c r="AB73" t="s">
         <v>29</v>
       </c>
-      <c r="AC73">
-        <v>5</v>
+      <c r="AC73" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD73" t="s">
         <v>22</v>
@@ -8127,8 +8134,8 @@
       <c r="AB74" t="s">
         <v>29</v>
       </c>
-      <c r="AC74">
-        <v>5</v>
+      <c r="AC74" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD74" t="s">
         <v>22</v>
@@ -8222,8 +8229,8 @@
       <c r="AB75" t="s">
         <v>29</v>
       </c>
-      <c r="AC75">
-        <v>5</v>
+      <c r="AC75" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD75" t="s">
         <v>22</v>
@@ -8317,8 +8324,8 @@
       <c r="AB76" t="s">
         <v>29</v>
       </c>
-      <c r="AC76">
-        <v>5</v>
+      <c r="AC76" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD76" t="s">
         <v>22</v>
@@ -8412,8 +8419,8 @@
       <c r="AB77" t="s">
         <v>29</v>
       </c>
-      <c r="AC77">
-        <v>5</v>
+      <c r="AC77" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD77" t="s">
         <v>22</v>
@@ -8507,8 +8514,8 @@
       <c r="AB78" t="s">
         <v>29</v>
       </c>
-      <c r="AC78">
-        <v>5</v>
+      <c r="AC78" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD78" t="s">
         <v>22</v>
@@ -8602,8 +8609,8 @@
       <c r="AB79" t="s">
         <v>29</v>
       </c>
-      <c r="AC79">
-        <v>5</v>
+      <c r="AC79" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD79" t="s">
         <v>22</v>
@@ -8697,8 +8704,8 @@
       <c r="AB80" t="s">
         <v>29</v>
       </c>
-      <c r="AC80">
-        <v>5</v>
+      <c r="AC80" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD80" t="s">
         <v>22</v>
@@ -8792,8 +8799,8 @@
       <c r="AB81" t="s">
         <v>29</v>
       </c>
-      <c r="AC81">
-        <v>5</v>
+      <c r="AC81" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD81" t="s">
         <v>22</v>
@@ -8887,8 +8894,8 @@
       <c r="AB82" t="s">
         <v>29</v>
       </c>
-      <c r="AC82">
-        <v>5</v>
+      <c r="AC82" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD82" t="s">
         <v>22</v>
@@ -8982,8 +8989,8 @@
       <c r="AB83" t="s">
         <v>29</v>
       </c>
-      <c r="AC83">
-        <v>5</v>
+      <c r="AC83" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD83" t="s">
         <v>22</v>
@@ -9077,8 +9084,8 @@
       <c r="AB84" t="s">
         <v>29</v>
       </c>
-      <c r="AC84">
-        <v>5</v>
+      <c r="AC84" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD84" t="s">
         <v>22</v>
@@ -9172,8 +9179,8 @@
       <c r="AB85" t="s">
         <v>29</v>
       </c>
-      <c r="AC85">
-        <v>5</v>
+      <c r="AC85" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD85" t="s">
         <v>22</v>
@@ -9267,8 +9274,8 @@
       <c r="AB86" t="s">
         <v>29</v>
       </c>
-      <c r="AC86">
-        <v>5</v>
+      <c r="AC86" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD86" t="s">
         <v>22</v>
@@ -9362,8 +9369,8 @@
       <c r="AB87" t="s">
         <v>29</v>
       </c>
-      <c r="AC87">
-        <v>5</v>
+      <c r="AC87" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD87" t="s">
         <v>22</v>
@@ -9457,8 +9464,8 @@
       <c r="AB88" t="s">
         <v>29</v>
       </c>
-      <c r="AC88">
-        <v>5</v>
+      <c r="AC88" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD88" t="s">
         <v>22</v>
@@ -9552,8 +9559,8 @@
       <c r="AB89" t="s">
         <v>29</v>
       </c>
-      <c r="AC89">
-        <v>5</v>
+      <c r="AC89" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD89" t="s">
         <v>22</v>
@@ -9647,8 +9654,8 @@
       <c r="AB90" t="s">
         <v>29</v>
       </c>
-      <c r="AC90">
-        <v>5</v>
+      <c r="AC90" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD90" t="s">
         <v>22</v>
@@ -9742,8 +9749,8 @@
       <c r="AB91" t="s">
         <v>29</v>
       </c>
-      <c r="AC91">
-        <v>5</v>
+      <c r="AC91" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD91" t="s">
         <v>22</v>
@@ -9837,8 +9844,8 @@
       <c r="AB92" t="s">
         <v>29</v>
       </c>
-      <c r="AC92">
-        <v>5</v>
+      <c r="AC92" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD92" t="s">
         <v>22</v>
@@ -9932,8 +9939,8 @@
       <c r="AB93" t="s">
         <v>29</v>
       </c>
-      <c r="AC93">
-        <v>5</v>
+      <c r="AC93" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD93" t="s">
         <v>22</v>
@@ -10027,8 +10034,8 @@
       <c r="AB94" t="s">
         <v>29</v>
       </c>
-      <c r="AC94">
-        <v>5</v>
+      <c r="AC94" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD94" t="s">
         <v>22</v>
@@ -10122,8 +10129,8 @@
       <c r="AB95" t="s">
         <v>29</v>
       </c>
-      <c r="AC95">
-        <v>5</v>
+      <c r="AC95" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD95" t="s">
         <v>22</v>
@@ -10217,8 +10224,8 @@
       <c r="AB96" t="s">
         <v>29</v>
       </c>
-      <c r="AC96">
-        <v>5</v>
+      <c r="AC96" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD96" t="s">
         <v>22</v>
@@ -10312,8 +10319,8 @@
       <c r="AB97" t="s">
         <v>29</v>
       </c>
-      <c r="AC97">
-        <v>5</v>
+      <c r="AC97" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD97" t="s">
         <v>22</v>
@@ -10407,8 +10414,8 @@
       <c r="AB98" t="s">
         <v>30</v>
       </c>
-      <c r="AC98">
-        <v>5</v>
+      <c r="AC98" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD98" t="s">
         <v>22</v>
@@ -10502,8 +10509,8 @@
       <c r="AB99" t="s">
         <v>30</v>
       </c>
-      <c r="AC99">
-        <v>5</v>
+      <c r="AC99" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD99" t="s">
         <v>22</v>
@@ -10597,8 +10604,8 @@
       <c r="AB100" t="s">
         <v>30</v>
       </c>
-      <c r="AC100">
-        <v>5</v>
+      <c r="AC100" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD100" t="s">
         <v>22</v>
@@ -10692,8 +10699,8 @@
       <c r="AB101" t="s">
         <v>30</v>
       </c>
-      <c r="AC101">
-        <v>5</v>
+      <c r="AC101" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD101" t="s">
         <v>22</v>
@@ -10787,8 +10794,8 @@
       <c r="AB102" t="s">
         <v>30</v>
       </c>
-      <c r="AC102">
-        <v>5</v>
+      <c r="AC102" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD102" t="s">
         <v>22</v>
@@ -10882,8 +10889,8 @@
       <c r="AB103" t="s">
         <v>30</v>
       </c>
-      <c r="AC103">
-        <v>5</v>
+      <c r="AC103" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD103" t="s">
         <v>22</v>
@@ -10977,8 +10984,8 @@
       <c r="AB104" t="s">
         <v>30</v>
       </c>
-      <c r="AC104">
-        <v>5</v>
+      <c r="AC104" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD104" t="s">
         <v>22</v>
@@ -11072,8 +11079,8 @@
       <c r="AB105" t="s">
         <v>30</v>
       </c>
-      <c r="AC105">
-        <v>5</v>
+      <c r="AC105" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD105" t="s">
         <v>22</v>
@@ -11167,8 +11174,8 @@
       <c r="AB106" t="s">
         <v>30</v>
       </c>
-      <c r="AC106">
-        <v>5</v>
+      <c r="AC106" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD106" t="s">
         <v>22</v>
@@ -11262,8 +11269,8 @@
       <c r="AB107" t="s">
         <v>30</v>
       </c>
-      <c r="AC107">
-        <v>5</v>
+      <c r="AC107" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD107" t="s">
         <v>22</v>
@@ -11357,8 +11364,8 @@
       <c r="AB108" t="s">
         <v>30</v>
       </c>
-      <c r="AC108">
-        <v>5</v>
+      <c r="AC108" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD108" t="s">
         <v>22</v>
@@ -11452,8 +11459,8 @@
       <c r="AB109" t="s">
         <v>30</v>
       </c>
-      <c r="AC109">
-        <v>5</v>
+      <c r="AC109" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD109" t="s">
         <v>22</v>
@@ -11547,8 +11554,8 @@
       <c r="AB110" t="s">
         <v>30</v>
       </c>
-      <c r="AC110">
-        <v>5</v>
+      <c r="AC110" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD110" t="s">
         <v>22</v>
@@ -11642,8 +11649,8 @@
       <c r="AB111" t="s">
         <v>30</v>
       </c>
-      <c r="AC111">
-        <v>5</v>
+      <c r="AC111" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD111" t="s">
         <v>22</v>
@@ -11737,8 +11744,8 @@
       <c r="AB112" t="s">
         <v>30</v>
       </c>
-      <c r="AC112">
-        <v>5</v>
+      <c r="AC112" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD112" t="s">
         <v>22</v>
@@ -11832,8 +11839,8 @@
       <c r="AB113" t="s">
         <v>30</v>
       </c>
-      <c r="AC113">
-        <v>5</v>
+      <c r="AC113" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD113" t="s">
         <v>22</v>
@@ -11927,8 +11934,8 @@
       <c r="AB114" t="s">
         <v>30</v>
       </c>
-      <c r="AC114">
-        <v>5</v>
+      <c r="AC114" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD114" t="s">
         <v>22</v>
@@ -12022,8 +12029,8 @@
       <c r="AB115" t="s">
         <v>30</v>
       </c>
-      <c r="AC115">
-        <v>5</v>
+      <c r="AC115" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD115" t="s">
         <v>22</v>
@@ -12117,8 +12124,8 @@
       <c r="AB116" t="s">
         <v>30</v>
       </c>
-      <c r="AC116">
-        <v>5</v>
+      <c r="AC116" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD116" t="s">
         <v>22</v>
@@ -12212,8 +12219,8 @@
       <c r="AB117" t="s">
         <v>30</v>
       </c>
-      <c r="AC117">
-        <v>5</v>
+      <c r="AC117" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD117" t="s">
         <v>22</v>
@@ -12307,8 +12314,8 @@
       <c r="AB118" t="s">
         <v>30</v>
       </c>
-      <c r="AC118">
-        <v>5</v>
+      <c r="AC118" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD118" t="s">
         <v>22</v>
@@ -12402,8 +12409,8 @@
       <c r="AB119" t="s">
         <v>30</v>
       </c>
-      <c r="AC119">
-        <v>5</v>
+      <c r="AC119" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD119" t="s">
         <v>22</v>
@@ -12497,8 +12504,8 @@
       <c r="AB120" t="s">
         <v>30</v>
       </c>
-      <c r="AC120">
-        <v>5</v>
+      <c r="AC120" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD120" t="s">
         <v>22</v>
@@ -12592,8 +12599,8 @@
       <c r="AB121" t="s">
         <v>30</v>
       </c>
-      <c r="AC121">
-        <v>5</v>
+      <c r="AC121" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD121" t="s">
         <v>22</v>
@@ -12687,8 +12694,8 @@
       <c r="AB122" t="s">
         <v>30</v>
       </c>
-      <c r="AC122">
-        <v>5</v>
+      <c r="AC122" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD122" t="s">
         <v>22</v>
@@ -12782,8 +12789,8 @@
       <c r="AB123" t="s">
         <v>30</v>
       </c>
-      <c r="AC123">
-        <v>5</v>
+      <c r="AC123" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD123" t="s">
         <v>22</v>
@@ -12877,8 +12884,8 @@
       <c r="AB124" t="s">
         <v>30</v>
       </c>
-      <c r="AC124">
-        <v>5</v>
+      <c r="AC124" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD124" t="s">
         <v>22</v>
@@ -12972,8 +12979,8 @@
       <c r="AB125" t="s">
         <v>30</v>
       </c>
-      <c r="AC125">
-        <v>5</v>
+      <c r="AC125" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD125" t="s">
         <v>22</v>
@@ -13067,8 +13074,8 @@
       <c r="AB126" t="s">
         <v>30</v>
       </c>
-      <c r="AC126">
-        <v>5</v>
+      <c r="AC126" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD126" t="s">
         <v>22</v>
@@ -13162,8 +13169,8 @@
       <c r="AB127" t="s">
         <v>30</v>
       </c>
-      <c r="AC127">
-        <v>5</v>
+      <c r="AC127" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD127" t="s">
         <v>22</v>
@@ -13257,8 +13264,8 @@
       <c r="AB128" t="s">
         <v>30</v>
       </c>
-      <c r="AC128">
-        <v>5</v>
+      <c r="AC128" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD128" t="s">
         <v>22</v>
@@ -13352,8 +13359,8 @@
       <c r="AB129" t="s">
         <v>30</v>
       </c>
-      <c r="AC129">
-        <v>5</v>
+      <c r="AC129" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD129" t="s">
         <v>22</v>
@@ -13447,8 +13454,8 @@
       <c r="AB130" t="s">
         <v>30</v>
       </c>
-      <c r="AC130">
-        <v>5</v>
+      <c r="AC130" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD130" t="s">
         <v>22</v>
@@ -13542,8 +13549,8 @@
       <c r="AB131" t="s">
         <v>30</v>
       </c>
-      <c r="AC131">
-        <v>5</v>
+      <c r="AC131" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD131" t="s">
         <v>22</v>
@@ -13637,8 +13644,8 @@
       <c r="AB132" t="s">
         <v>30</v>
       </c>
-      <c r="AC132">
-        <v>5</v>
+      <c r="AC132" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD132" t="s">
         <v>22</v>
@@ -13732,8 +13739,8 @@
       <c r="AB133" t="s">
         <v>30</v>
       </c>
-      <c r="AC133">
-        <v>5</v>
+      <c r="AC133" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD133" t="s">
         <v>22</v>
@@ -13827,8 +13834,8 @@
       <c r="AB134" t="s">
         <v>30</v>
       </c>
-      <c r="AC134">
-        <v>5</v>
+      <c r="AC134" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD134" t="s">
         <v>22</v>
@@ -13922,8 +13929,8 @@
       <c r="AB135" t="s">
         <v>30</v>
       </c>
-      <c r="AC135">
-        <v>5</v>
+      <c r="AC135" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD135" t="s">
         <v>22</v>
@@ -14017,8 +14024,8 @@
       <c r="AB136" t="s">
         <v>30</v>
       </c>
-      <c r="AC136">
-        <v>5</v>
+      <c r="AC136" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD136" t="s">
         <v>22</v>
@@ -14112,8 +14119,8 @@
       <c r="AB137" t="s">
         <v>30</v>
       </c>
-      <c r="AC137">
-        <v>5</v>
+      <c r="AC137" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD137" t="s">
         <v>22</v>
@@ -14207,8 +14214,8 @@
       <c r="AB138" t="s">
         <v>30</v>
       </c>
-      <c r="AC138">
-        <v>5</v>
+      <c r="AC138" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD138" t="s">
         <v>22</v>
@@ -14302,8 +14309,8 @@
       <c r="AB139" t="s">
         <v>30</v>
       </c>
-      <c r="AC139">
-        <v>5</v>
+      <c r="AC139" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD139" t="s">
         <v>22</v>
@@ -14397,8 +14404,8 @@
       <c r="AB140" t="s">
         <v>30</v>
       </c>
-      <c r="AC140">
-        <v>5</v>
+      <c r="AC140" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD140" t="s">
         <v>22</v>
@@ -14492,8 +14499,8 @@
       <c r="AB141" t="s">
         <v>30</v>
       </c>
-      <c r="AC141">
-        <v>5</v>
+      <c r="AC141" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD141" t="s">
         <v>22</v>
@@ -14587,8 +14594,8 @@
       <c r="AB142" t="s">
         <v>30</v>
       </c>
-      <c r="AC142">
-        <v>5</v>
+      <c r="AC142" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD142" t="s">
         <v>22</v>
@@ -14682,8 +14689,8 @@
       <c r="AB143" t="s">
         <v>30</v>
       </c>
-      <c r="AC143">
-        <v>5</v>
+      <c r="AC143" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD143" t="s">
         <v>22</v>
@@ -14777,8 +14784,8 @@
       <c r="AB144" t="s">
         <v>30</v>
       </c>
-      <c r="AC144">
-        <v>5</v>
+      <c r="AC144" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD144" t="s">
         <v>22</v>
@@ -14872,8 +14879,8 @@
       <c r="AB145" t="s">
         <v>30</v>
       </c>
-      <c r="AC145">
-        <v>5</v>
+      <c r="AC145" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="AD145" t="s">
         <v>22</v>
@@ -14888,5 +14895,6 @@
     <cfRule type="uniqueValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/leave/src/main/resources/TestData/Accural/CarryForwardWithWorkingDays.xlsx
+++ b/leave/src/main/resources/TestData/Accural/CarryForwardWithWorkingDays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sande\Desktop\yeten\Automation_Project\leave\src\main\resources\TestData\Accural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B24147-5B16-4DDD-9704-A4DB883877EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A942FA7-5714-4D34-A1FB-79C85B745A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="1116" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22572" windowHeight="11844" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFWD_WD" sheetId="4" r:id="rId1"/>
@@ -1105,8 +1105,8 @@
   <dimension ref="A1:AE145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C49"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1217,7 +1217,7 @@
         <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>47</v>
@@ -1312,7 +1312,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>48</v>
@@ -1407,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>49</v>
@@ -1502,7 +1502,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>50</v>
@@ -1597,7 +1597,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>51</v>
@@ -5777,7 +5777,7 @@
         <v>35</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>94</v>
@@ -5872,7 +5872,7 @@
         <v>36</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>95</v>
@@ -5967,7 +5967,7 @@
         <v>37</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>96</v>
@@ -6062,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>97</v>
@@ -6157,7 +6157,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>98</v>
@@ -6252,7 +6252,7 @@
         <v>40</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>99</v>
@@ -6347,7 +6347,7 @@
         <v>41</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>100</v>
@@ -6442,7 +6442,7 @@
         <v>42</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>101</v>
@@ -6537,7 +6537,7 @@
         <v>43</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>102</v>
@@ -6632,7 +6632,7 @@
         <v>44</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>103</v>
@@ -6727,7 +6727,7 @@
         <v>45</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>104</v>
@@ -6822,7 +6822,7 @@
         <v>46</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>105</v>
@@ -6917,7 +6917,7 @@
         <v>35</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>106</v>
@@ -7012,7 +7012,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>107</v>
@@ -7107,7 +7107,7 @@
         <v>37</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>108</v>
@@ -7202,7 +7202,7 @@
         <v>38</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>109</v>
@@ -7297,7 +7297,7 @@
         <v>39</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>110</v>
@@ -7392,7 +7392,7 @@
         <v>40</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>111</v>
@@ -7487,7 +7487,7 @@
         <v>41</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>112</v>
@@ -7582,7 +7582,7 @@
         <v>42</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>113</v>
@@ -7677,7 +7677,7 @@
         <v>43</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>114</v>
@@ -7772,7 +7772,7 @@
         <v>44</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>115</v>
@@ -7867,7 +7867,7 @@
         <v>45</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>116</v>
@@ -7962,7 +7962,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>117</v>
@@ -8057,7 +8057,7 @@
         <v>35</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>118</v>
@@ -8152,7 +8152,7 @@
         <v>36</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>119</v>
@@ -8247,7 +8247,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>120</v>
@@ -8342,7 +8342,7 @@
         <v>38</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>121</v>
@@ -8437,7 +8437,7 @@
         <v>39</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>122</v>
@@ -8532,7 +8532,7 @@
         <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>123</v>
@@ -8627,7 +8627,7 @@
         <v>41</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>124</v>
@@ -8722,7 +8722,7 @@
         <v>42</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>125</v>
@@ -8817,7 +8817,7 @@
         <v>43</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>126</v>
@@ -8912,7 +8912,7 @@
         <v>44</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>127</v>
@@ -9007,7 +9007,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>128</v>
@@ -9102,7 +9102,7 @@
         <v>46</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>129</v>
@@ -9197,7 +9197,7 @@
         <v>35</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>130</v>
@@ -9292,7 +9292,7 @@
         <v>36</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>131</v>
@@ -9387,7 +9387,7 @@
         <v>37</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>132</v>
@@ -9482,7 +9482,7 @@
         <v>38</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>133</v>
@@ -9577,7 +9577,7 @@
         <v>39</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>134</v>
@@ -9672,7 +9672,7 @@
         <v>40</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>135</v>
@@ -9767,7 +9767,7 @@
         <v>41</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>136</v>
@@ -9862,7 +9862,7 @@
         <v>42</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>137</v>
@@ -9957,7 +9957,7 @@
         <v>43</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>138</v>
@@ -10052,7 +10052,7 @@
         <v>44</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>139</v>
@@ -10147,7 +10147,7 @@
         <v>45</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>140</v>
@@ -10242,7 +10242,7 @@
         <v>46</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>141</v>
@@ -10337,7 +10337,7 @@
         <v>35</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>142</v>
@@ -10432,7 +10432,7 @@
         <v>36</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>143</v>
@@ -10527,7 +10527,7 @@
         <v>37</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>144</v>
@@ -10622,7 +10622,7 @@
         <v>38</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>145</v>
@@ -10717,7 +10717,7 @@
         <v>39</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>146</v>
@@ -10812,7 +10812,7 @@
         <v>40</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>147</v>
@@ -10907,7 +10907,7 @@
         <v>41</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>148</v>
@@ -11002,7 +11002,7 @@
         <v>42</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>149</v>
@@ -11097,7 +11097,7 @@
         <v>43</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>150</v>
@@ -11192,7 +11192,7 @@
         <v>44</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>151</v>
@@ -11287,7 +11287,7 @@
         <v>45</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>152</v>
@@ -11382,7 +11382,7 @@
         <v>46</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>153</v>
@@ -11477,7 +11477,7 @@
         <v>35</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>154</v>
@@ -11572,7 +11572,7 @@
         <v>36</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>155</v>
@@ -11667,7 +11667,7 @@
         <v>37</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>156</v>
@@ -11762,7 +11762,7 @@
         <v>38</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>157</v>
@@ -11857,7 +11857,7 @@
         <v>39</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>158</v>
@@ -11952,7 +11952,7 @@
         <v>40</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>159</v>
@@ -12047,7 +12047,7 @@
         <v>41</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>160</v>
@@ -12142,7 +12142,7 @@
         <v>42</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>161</v>
@@ -12237,7 +12237,7 @@
         <v>43</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>162</v>
@@ -12332,7 +12332,7 @@
         <v>44</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>163</v>
@@ -12427,7 +12427,7 @@
         <v>45</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>164</v>
@@ -12522,7 +12522,7 @@
         <v>46</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>165</v>
@@ -12617,7 +12617,7 @@
         <v>35</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>166</v>
@@ -12712,7 +12712,7 @@
         <v>36</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>167</v>
@@ -12807,7 +12807,7 @@
         <v>37</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>168</v>
@@ -12902,7 +12902,7 @@
         <v>38</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>169</v>
@@ -12997,7 +12997,7 @@
         <v>39</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>170</v>
@@ -13092,7 +13092,7 @@
         <v>40</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>171</v>
@@ -13187,7 +13187,7 @@
         <v>41</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>172</v>
@@ -13282,7 +13282,7 @@
         <v>42</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>173</v>
@@ -13377,7 +13377,7 @@
         <v>43</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>174</v>
@@ -13472,7 +13472,7 @@
         <v>44</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>175</v>
@@ -13567,7 +13567,7 @@
         <v>45</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>176</v>
@@ -13662,7 +13662,7 @@
         <v>46</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>177</v>
@@ -13757,7 +13757,7 @@
         <v>35</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>178</v>
@@ -13852,7 +13852,7 @@
         <v>36</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>179</v>
@@ -13947,7 +13947,7 @@
         <v>37</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>180</v>
@@ -14137,7 +14137,7 @@
         <v>39</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>182</v>
@@ -14232,7 +14232,7 @@
         <v>40</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>183</v>
@@ -14327,7 +14327,7 @@
         <v>41</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>184</v>
@@ -14422,7 +14422,7 @@
         <v>42</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>185</v>
@@ -14517,7 +14517,7 @@
         <v>43</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>186</v>
@@ -14612,7 +14612,7 @@
         <v>44</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>187</v>
@@ -14707,7 +14707,7 @@
         <v>45</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>188</v>
@@ -14802,7 +14802,7 @@
         <v>46</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>189</v>
